--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>164.703808022651</v>
+        <v>164.7314145</v>
       </c>
       <c r="H2">
-        <v>164.703808022651</v>
+        <v>329.462829</v>
       </c>
       <c r="I2">
-        <v>0.1612765962774792</v>
+        <v>0.1559412251502966</v>
       </c>
       <c r="J2">
-        <v>0.1612765962774792</v>
+        <v>0.1160318088037158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>11043.5437575833</v>
+        <v>11049.09210377035</v>
       </c>
       <c r="R2">
-        <v>11043.5437575833</v>
+        <v>44196.36841508141</v>
       </c>
       <c r="S2">
-        <v>0.06478137298313219</v>
+        <v>0.06060113986820593</v>
       </c>
       <c r="T2">
-        <v>0.06478137298313219</v>
+        <v>0.0371531180039802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>164.703808022651</v>
+        <v>164.7314145</v>
       </c>
       <c r="H3">
-        <v>164.703808022651</v>
+        <v>329.462829</v>
       </c>
       <c r="I3">
-        <v>0.1612765962774792</v>
+        <v>0.1559412251502966</v>
       </c>
       <c r="J3">
-        <v>0.1612765962774792</v>
+        <v>0.1160318088037158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>659.8846915998158</v>
+        <v>695.003594910588</v>
       </c>
       <c r="R3">
-        <v>659.8846915998158</v>
+        <v>4170.021569463528</v>
       </c>
       <c r="S3">
-        <v>0.003870880332504934</v>
+        <v>0.003811897816446863</v>
       </c>
       <c r="T3">
-        <v>0.003870880332504934</v>
+        <v>0.003505475879700415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>164.703808022651</v>
+        <v>164.7314145</v>
       </c>
       <c r="H4">
-        <v>164.703808022651</v>
+        <v>329.462829</v>
       </c>
       <c r="I4">
-        <v>0.1612765962774792</v>
+        <v>0.1559412251502966</v>
       </c>
       <c r="J4">
-        <v>0.1612765962774792</v>
+        <v>0.1160318088037158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>2050.592724659261</v>
+        <v>2067.36058241469</v>
       </c>
       <c r="R4">
-        <v>2050.592724659261</v>
+        <v>12404.16349448814</v>
       </c>
       <c r="S4">
-        <v>0.01202876676623218</v>
+        <v>0.01133888709011455</v>
       </c>
       <c r="T4">
-        <v>0.01202876676623218</v>
+        <v>0.01042740312333267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>164.703808022651</v>
+        <v>164.7314145</v>
       </c>
       <c r="H5">
-        <v>164.703808022651</v>
+        <v>329.462829</v>
       </c>
       <c r="I5">
-        <v>0.1612765962774792</v>
+        <v>0.1559412251502966</v>
       </c>
       <c r="J5">
-        <v>0.1612765962774792</v>
+        <v>0.1160318088037158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>2001.806210826513</v>
+        <v>2007.497625669162</v>
       </c>
       <c r="R5">
-        <v>2001.806210826513</v>
+        <v>12044.98575401497</v>
       </c>
       <c r="S5">
-        <v>0.01174258531772968</v>
+        <v>0.01101055573215418</v>
       </c>
       <c r="T5">
-        <v>0.01174258531772968</v>
+        <v>0.01012546489956565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>164.703808022651</v>
+        <v>164.7314145</v>
       </c>
       <c r="H6">
-        <v>164.703808022651</v>
+        <v>329.462829</v>
       </c>
       <c r="I6">
-        <v>0.1612765962774792</v>
+        <v>0.1559412251502966</v>
       </c>
       <c r="J6">
-        <v>0.1612765962774792</v>
+        <v>0.1160318088037158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>7014.293195558219</v>
+        <v>7380.414011375183</v>
       </c>
       <c r="R6">
-        <v>7014.293195558219</v>
+        <v>44282.48406825109</v>
       </c>
       <c r="S6">
-        <v>0.04114580914323649</v>
+        <v>0.04047947990550213</v>
       </c>
       <c r="T6">
-        <v>0.04114580914323649</v>
+        <v>0.03722551003841511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>164.703808022651</v>
+        <v>164.7314145</v>
       </c>
       <c r="H7">
-        <v>164.703808022651</v>
+        <v>329.462829</v>
       </c>
       <c r="I7">
-        <v>0.1612765962774792</v>
+        <v>0.1559412251502966</v>
       </c>
       <c r="J7">
-        <v>0.1612765962774792</v>
+        <v>0.1160318088037158</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>4723.355801142458</v>
+        <v>5232.588365315756</v>
       </c>
       <c r="R7">
-        <v>4723.355801142458</v>
+        <v>20930.35346126302</v>
       </c>
       <c r="S7">
-        <v>0.02770718173464373</v>
+        <v>0.02869926473787297</v>
       </c>
       <c r="T7">
-        <v>0.02770718173464373</v>
+        <v>0.01759483685872176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>184.518030423604</v>
+        <v>196.007169</v>
       </c>
       <c r="H8">
-        <v>184.518030423604</v>
+        <v>588.021507</v>
       </c>
       <c r="I8">
-        <v>0.1806785177331823</v>
+        <v>0.1855480824035615</v>
       </c>
       <c r="J8">
-        <v>0.1806785177331823</v>
+        <v>0.2070922515896227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>12372.10582748588</v>
+        <v>13146.86254503254</v>
       </c>
       <c r="R8">
-        <v>12372.10582748588</v>
+        <v>78881.17527019526</v>
       </c>
       <c r="S8">
-        <v>0.07257471150479126</v>
+        <v>0.07210681641867453</v>
       </c>
       <c r="T8">
-        <v>0.07257471150479126</v>
+        <v>0.06631046210815263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>184.518030423604</v>
+        <v>196.007169</v>
       </c>
       <c r="H9">
-        <v>184.518030423604</v>
+        <v>588.021507</v>
       </c>
       <c r="I9">
-        <v>0.1806785177331823</v>
+        <v>0.1855480824035615</v>
       </c>
       <c r="J9">
-        <v>0.1806785177331823</v>
+        <v>0.2070922515896227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>739.2702394831099</v>
+        <v>826.956336754136</v>
       </c>
       <c r="R9">
-        <v>739.2702394831099</v>
+        <v>7442.607030787225</v>
       </c>
       <c r="S9">
-        <v>0.00433655556319043</v>
+        <v>0.004535621221895301</v>
       </c>
       <c r="T9">
-        <v>0.00433655556319043</v>
+        <v>0.006256533448067944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>184.518030423604</v>
+        <v>196.007169</v>
       </c>
       <c r="H10">
-        <v>184.518030423604</v>
+        <v>588.021507</v>
       </c>
       <c r="I10">
-        <v>0.1806785177331823</v>
+        <v>0.1855480824035615</v>
       </c>
       <c r="J10">
-        <v>0.1806785177331823</v>
+        <v>0.2070922515896227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>2297.28344048404</v>
+        <v>2459.86775680418</v>
       </c>
       <c r="R10">
-        <v>2297.28344048404</v>
+        <v>22138.80981123762</v>
       </c>
       <c r="S10">
-        <v>0.01347585328339722</v>
+        <v>0.01349167774033775</v>
       </c>
       <c r="T10">
-        <v>0.01347585328339722</v>
+        <v>0.01861071040180555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>184.518030423604</v>
+        <v>196.007169</v>
       </c>
       <c r="H11">
-        <v>184.518030423604</v>
+        <v>588.021507</v>
       </c>
       <c r="I11">
-        <v>0.1806785177331823</v>
+        <v>0.1855480824035615</v>
       </c>
       <c r="J11">
-        <v>0.1806785177331823</v>
+        <v>0.2070922515896227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>2242.627804092108</v>
+        <v>2388.639274275364</v>
       </c>
       <c r="R11">
-        <v>2242.627804092108</v>
+        <v>21497.75346847827</v>
       </c>
       <c r="S11">
-        <v>0.0131552435910324</v>
+        <v>0.01310100969342593</v>
       </c>
       <c r="T11">
-        <v>0.0131552435910324</v>
+        <v>0.01807181449691915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>184.518030423604</v>
+        <v>196.007169</v>
       </c>
       <c r="H12">
-        <v>184.518030423604</v>
+        <v>588.021507</v>
       </c>
       <c r="I12">
-        <v>0.1806785177331823</v>
+        <v>0.1855480824035615</v>
       </c>
       <c r="J12">
-        <v>0.1806785177331823</v>
+        <v>0.2070922515896227</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>7858.127755492425</v>
+        <v>8781.652611970883</v>
       </c>
       <c r="R12">
-        <v>7858.127755492425</v>
+        <v>79034.87350773795</v>
       </c>
       <c r="S12">
-        <v>0.04609573849228428</v>
+        <v>0.04816487664452041</v>
       </c>
       <c r="T12">
-        <v>0.04609573849228428</v>
+        <v>0.06643966658719029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>184.518030423604</v>
+        <v>196.007169</v>
       </c>
       <c r="H13">
-        <v>184.518030423604</v>
+        <v>588.021507</v>
       </c>
       <c r="I13">
-        <v>0.1806785177331823</v>
+        <v>0.1855480824035615</v>
       </c>
       <c r="J13">
-        <v>0.1806785177331823</v>
+        <v>0.2070922515896227</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>5291.58566447262</v>
+        <v>6226.042768714763</v>
       </c>
       <c r="R13">
-        <v>5291.58566447262</v>
+        <v>37356.25661228858</v>
       </c>
       <c r="S13">
-        <v>0.03104041529848672</v>
+        <v>0.03414808068470759</v>
       </c>
       <c r="T13">
-        <v>0.03104041529848672</v>
+        <v>0.03140306454748713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>185.206845976016</v>
+        <v>185.9706316666667</v>
       </c>
       <c r="H14">
-        <v>185.206845976016</v>
+        <v>557.911895</v>
       </c>
       <c r="I14">
-        <v>0.1813530001819471</v>
+        <v>0.1760471020788482</v>
       </c>
       <c r="J14">
-        <v>0.1813530001819471</v>
+        <v>0.1964881031539942</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>12418.29155194053</v>
+        <v>12473.67810273584</v>
       </c>
       <c r="R14">
-        <v>12418.29155194053</v>
+        <v>74842.06861641502</v>
       </c>
       <c r="S14">
-        <v>0.0728456367356836</v>
+        <v>0.06841459047272537</v>
       </c>
       <c r="T14">
-        <v>0.0728456367356836</v>
+        <v>0.06291503819618816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>185.206845976016</v>
+        <v>185.9706316666667</v>
       </c>
       <c r="H15">
-        <v>185.206845976016</v>
+        <v>557.911895</v>
       </c>
       <c r="I15">
-        <v>0.1813530001819471</v>
+        <v>0.1760471020788482</v>
       </c>
       <c r="J15">
-        <v>0.1813530001819471</v>
+        <v>0.1964881031539942</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>742.0299743297386</v>
+        <v>784.6120786884044</v>
       </c>
       <c r="R15">
-        <v>742.0299743297386</v>
+        <v>7061.50870819564</v>
       </c>
       <c r="S15">
-        <v>0.004352744154131742</v>
+        <v>0.004303374962966827</v>
       </c>
       <c r="T15">
-        <v>0.004352744154131742</v>
+        <v>0.005936167964248406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>185.206845976016</v>
+        <v>185.9706316666667</v>
       </c>
       <c r="H16">
-        <v>185.206845976016</v>
+        <v>557.911895</v>
       </c>
       <c r="I16">
-        <v>0.1813530001819471</v>
+        <v>0.1760471020788482</v>
       </c>
       <c r="J16">
-        <v>0.1813530001819471</v>
+        <v>0.1964881031539942</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>2305.859320892427</v>
+        <v>2333.910350745078</v>
       </c>
       <c r="R16">
-        <v>2305.859320892427</v>
+        <v>21005.1931567057</v>
       </c>
       <c r="S16">
-        <v>0.01352615935539634</v>
+        <v>0.01280083705312696</v>
       </c>
       <c r="T16">
-        <v>0.01352615935539634</v>
+        <v>0.01765774990193946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>185.206845976016</v>
+        <v>185.9706316666667</v>
       </c>
       <c r="H17">
-        <v>185.206845976016</v>
+        <v>557.911895</v>
       </c>
       <c r="I17">
-        <v>0.1813530001819471</v>
+        <v>0.1760471020788482</v>
       </c>
       <c r="J17">
-        <v>0.1813530001819471</v>
+        <v>0.1964881031539942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>2250.999652123349</v>
+        <v>2266.329119119095</v>
       </c>
       <c r="R17">
-        <v>2250.999652123349</v>
+        <v>20396.96207207186</v>
       </c>
       <c r="S17">
-        <v>0.01320435281011776</v>
+        <v>0.01243017314411364</v>
       </c>
       <c r="T17">
-        <v>0.01320435281011776</v>
+        <v>0.01714644813504183</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>185.206845976016</v>
+        <v>185.9706316666667</v>
       </c>
       <c r="H18">
-        <v>185.206845976016</v>
+        <v>557.911895</v>
       </c>
       <c r="I18">
-        <v>0.1813530001819471</v>
+        <v>0.1760471020788482</v>
       </c>
       <c r="J18">
-        <v>0.1813530001819471</v>
+        <v>0.1964881031539942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>7887.462561410293</v>
+        <v>8331.988527039326</v>
       </c>
       <c r="R18">
-        <v>7887.462561410293</v>
+        <v>74987.89674335394</v>
       </c>
       <c r="S18">
-        <v>0.04626781631850272</v>
+        <v>0.04569859653311222</v>
       </c>
       <c r="T18">
-        <v>0.04626781631850272</v>
+        <v>0.06303762676630723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>185.206845976016</v>
+        <v>185.9706316666667</v>
       </c>
       <c r="H19">
-        <v>185.206845976016</v>
+        <v>557.911895</v>
       </c>
       <c r="I19">
-        <v>0.1813530001819471</v>
+        <v>0.1760471020788482</v>
       </c>
       <c r="J19">
-        <v>0.1813530001819471</v>
+        <v>0.1964881031539942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N19">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O19">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P19">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q19">
-        <v>5311.339433219455</v>
+        <v>5907.238558613979</v>
       </c>
       <c r="R19">
-        <v>5311.339433219455</v>
+        <v>35443.43135168387</v>
       </c>
       <c r="S19">
-        <v>0.03115629080811492</v>
+        <v>0.03239952991280318</v>
       </c>
       <c r="T19">
-        <v>0.03115629080811492</v>
+        <v>0.02979507219026916</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.299904675289</v>
+        <v>171.1876676666667</v>
       </c>
       <c r="H20">
-        <v>168.299904675289</v>
+        <v>513.563003</v>
       </c>
       <c r="I20">
-        <v>0.1647978641521269</v>
+        <v>0.1620529679028636</v>
       </c>
       <c r="J20">
-        <v>0.1647978641521269</v>
+        <v>0.1808690963822147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N20">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O20">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P20">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q20">
-        <v>11284.66538808285</v>
+        <v>11482.13479996938</v>
       </c>
       <c r="R20">
-        <v>11284.66538808285</v>
+        <v>68892.80879981625</v>
       </c>
       <c r="S20">
-        <v>0.06619579127336321</v>
+        <v>0.06297625637142587</v>
       </c>
       <c r="T20">
-        <v>0.06619579127336321</v>
+        <v>0.0579138681922064</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.299904675289</v>
+        <v>171.1876676666667</v>
       </c>
       <c r="H21">
-        <v>168.299904675289</v>
+        <v>513.563003</v>
       </c>
       <c r="I21">
-        <v>0.1647978641521269</v>
+        <v>0.1620529679028636</v>
       </c>
       <c r="J21">
-        <v>0.1647978641521269</v>
+        <v>0.1808690963822147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N21">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P21">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q21">
-        <v>674.2924284887092</v>
+        <v>722.2425958874551</v>
       </c>
       <c r="R21">
-        <v>674.2924284887092</v>
+        <v>6500.183362987096</v>
       </c>
       <c r="S21">
-        <v>0.003955396045733428</v>
+        <v>0.003961296019716979</v>
       </c>
       <c r="T21">
-        <v>0.003955396045733428</v>
+        <v>0.005464296913819714</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.299904675289</v>
+        <v>171.1876676666667</v>
       </c>
       <c r="H22">
-        <v>168.299904675289</v>
+        <v>513.563003</v>
       </c>
       <c r="I22">
-        <v>0.1647978641521269</v>
+        <v>0.1620529679028636</v>
       </c>
       <c r="J22">
-        <v>0.1647978641521269</v>
+        <v>0.1808690963822147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N22">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O22">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P22">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q22">
-        <v>2095.364789868931</v>
+        <v>2148.385827947664</v>
       </c>
       <c r="R22">
-        <v>2095.364789868931</v>
+        <v>19335.47245152898</v>
       </c>
       <c r="S22">
-        <v>0.01229139947899534</v>
+        <v>0.01178328760658088</v>
       </c>
       <c r="T22">
-        <v>0.01229139947899534</v>
+        <v>0.01625412031385885</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.299904675289</v>
+        <v>171.1876676666667</v>
       </c>
       <c r="H23">
-        <v>168.299904675289</v>
+        <v>513.563003</v>
       </c>
       <c r="I23">
-        <v>0.1647978641521269</v>
+        <v>0.1620529679028636</v>
       </c>
       <c r="J23">
-        <v>0.1647978641521269</v>
+        <v>0.1808690963822147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N23">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O23">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P23">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q23">
-        <v>2045.513085005119</v>
+        <v>2086.176686018045</v>
       </c>
       <c r="R23">
-        <v>2045.513085005119</v>
+        <v>18775.5901741624</v>
       </c>
       <c r="S23">
-        <v>0.01199896962518053</v>
+        <v>0.01144208808758406</v>
       </c>
       <c r="T23">
-        <v>0.01199896962518053</v>
+        <v>0.01578346236015604</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.299904675289</v>
+        <v>171.1876676666667</v>
       </c>
       <c r="H24">
-        <v>168.299904675289</v>
+        <v>513.563003</v>
       </c>
       <c r="I24">
-        <v>0.1647978641521269</v>
+        <v>0.1620529679028636</v>
       </c>
       <c r="J24">
-        <v>0.1647978641521269</v>
+        <v>0.1808690963822147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N24">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O24">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P24">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q24">
-        <v>7167.441301749544</v>
+        <v>7669.671658296268</v>
       </c>
       <c r="R24">
-        <v>7167.441301749544</v>
+        <v>69027.04492466641</v>
       </c>
       <c r="S24">
-        <v>0.04204417517560975</v>
+        <v>0.04206597614920991</v>
       </c>
       <c r="T24">
-        <v>0.04204417517560975</v>
+        <v>0.05802671209241365</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.299904675289</v>
+        <v>171.1876676666667</v>
       </c>
       <c r="H25">
-        <v>168.299904675289</v>
+        <v>513.563003</v>
       </c>
       <c r="I25">
-        <v>0.1647978641521269</v>
+        <v>0.1620529679028636</v>
       </c>
       <c r="J25">
-        <v>0.1647978641521269</v>
+        <v>0.1808690963822147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N25">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O25">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P25">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q25">
-        <v>4826.484224156035</v>
+        <v>5437.66713129353</v>
       </c>
       <c r="R25">
-        <v>4826.484224156035</v>
+        <v>32626.00278776118</v>
       </c>
       <c r="S25">
-        <v>0.02831213255324462</v>
+        <v>0.02982406366834593</v>
       </c>
       <c r="T25">
-        <v>0.02831213255324462</v>
+        <v>0.02742663650976005</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>158.646574927984</v>
+        <v>173.5155153333334</v>
       </c>
       <c r="H26">
-        <v>158.646574927984</v>
+        <v>520.546546</v>
       </c>
       <c r="I26">
-        <v>0.1553454041083653</v>
+        <v>0.1642565999071482</v>
       </c>
       <c r="J26">
-        <v>0.1553454041083653</v>
+        <v>0.1833285942521505</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N26">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O26">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P26">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q26">
-        <v>10637.40063597656</v>
+        <v>11638.27140178643</v>
       </c>
       <c r="R26">
-        <v>10637.40063597656</v>
+        <v>69829.62841071859</v>
       </c>
       <c r="S26">
-        <v>0.06239893944342052</v>
+        <v>0.06383262139729376</v>
       </c>
       <c r="T26">
-        <v>0.06239893944342052</v>
+        <v>0.05870139374691737</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>158.646574927984</v>
+        <v>173.5155153333334</v>
       </c>
       <c r="H27">
-        <v>158.646574927984</v>
+        <v>520.546546</v>
       </c>
       <c r="I27">
-        <v>0.1553454041083653</v>
+        <v>0.1642565999071482</v>
       </c>
       <c r="J27">
-        <v>0.1553454041083653</v>
+        <v>0.1833285942521505</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N27">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P27">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q27">
-        <v>635.6164282207881</v>
+        <v>732.063810023497</v>
       </c>
       <c r="R27">
-        <v>635.6164282207881</v>
+        <v>6588.574290211473</v>
       </c>
       <c r="S27">
-        <v>0.003728522819724659</v>
+        <v>0.0040151625968026</v>
       </c>
       <c r="T27">
-        <v>0.003728522819724659</v>
+        <v>0.005538601628605463</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>158.646574927984</v>
+        <v>173.5155153333334</v>
       </c>
       <c r="H28">
-        <v>158.646574927984</v>
+        <v>520.546546</v>
       </c>
       <c r="I28">
-        <v>0.1553454041083653</v>
+        <v>0.1642565999071482</v>
       </c>
       <c r="J28">
-        <v>0.1553454041083653</v>
+        <v>0.1833285942521505</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N28">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O28">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P28">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q28">
-        <v>1975.179057758607</v>
+        <v>2177.600052341596</v>
       </c>
       <c r="R28">
-        <v>1975.179057758607</v>
+        <v>19598.40047107436</v>
       </c>
       <c r="S28">
-        <v>0.01158639056971806</v>
+        <v>0.01194351935069256</v>
       </c>
       <c r="T28">
-        <v>0.01158639056971806</v>
+        <v>0.01647514742733067</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>158.646574927984</v>
+        <v>173.5155153333334</v>
       </c>
       <c r="H29">
-        <v>158.646574927984</v>
+        <v>520.546546</v>
       </c>
       <c r="I29">
-        <v>0.1553454041083653</v>
+        <v>0.1642565999071482</v>
       </c>
       <c r="J29">
-        <v>0.1553454041083653</v>
+        <v>0.1833285942521505</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N29">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O29">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P29">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q29">
-        <v>1928.186742188237</v>
+        <v>2114.544976777503</v>
       </c>
       <c r="R29">
-        <v>1928.186742188237</v>
+        <v>19030.90479099753</v>
       </c>
       <c r="S29">
-        <v>0.01131073387933597</v>
+        <v>0.01159768012537233</v>
       </c>
       <c r="T29">
-        <v>0.01131073387933597</v>
+        <v>0.01599808936295249</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>158.646574927984</v>
+        <v>173.5155153333334</v>
       </c>
       <c r="H30">
-        <v>158.646574927984</v>
+        <v>520.546546</v>
       </c>
       <c r="I30">
-        <v>0.1553454041083653</v>
+        <v>0.1642565999071482</v>
       </c>
       <c r="J30">
-        <v>0.1553454041083653</v>
+        <v>0.1833285942521505</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N30">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O30">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P30">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q30">
-        <v>6756.331892842074</v>
+        <v>7773.965545333909</v>
       </c>
       <c r="R30">
-        <v>6756.331892842074</v>
+        <v>69965.68990800518</v>
       </c>
       <c r="S30">
-        <v>0.03963260941919011</v>
+        <v>0.04263799857208483</v>
       </c>
       <c r="T30">
-        <v>0.03963260941919011</v>
+        <v>0.05881577212337152</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>158.646574927984</v>
+        <v>173.5155153333334</v>
       </c>
       <c r="H31">
-        <v>158.646574927984</v>
+        <v>520.546546</v>
       </c>
       <c r="I31">
-        <v>0.1553454041083653</v>
+        <v>0.1642565999071482</v>
       </c>
       <c r="J31">
-        <v>0.1553454041083653</v>
+        <v>0.1833285942521505</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N31">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O31">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P31">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q31">
-        <v>4549.647206180083</v>
+        <v>5511.609728422309</v>
       </c>
       <c r="R31">
-        <v>4549.647206180083</v>
+        <v>33069.65837053386</v>
       </c>
       <c r="S31">
-        <v>0.02668820797697593</v>
+        <v>0.03022961786490209</v>
       </c>
       <c r="T31">
-        <v>0.02668820797697593</v>
+        <v>0.02779958996297304</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>159.875357279328</v>
+        <v>164.956207</v>
       </c>
       <c r="H32">
-        <v>159.875357279328</v>
+        <v>329.912414</v>
       </c>
       <c r="I32">
-        <v>0.1565486175468994</v>
+        <v>0.1561540225572818</v>
       </c>
       <c r="J32">
-        <v>0.1565486175468994</v>
+        <v>0.1161901458183021</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N32">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O32">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P32">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q32">
-        <v>10719.79163730512</v>
+        <v>11064.16969564483</v>
       </c>
       <c r="R32">
-        <v>10719.79163730512</v>
+        <v>44256.67878257933</v>
       </c>
       <c r="S32">
-        <v>0.06288224464912989</v>
+        <v>0.06068383618800124</v>
       </c>
       <c r="T32">
-        <v>0.06288224464912989</v>
+        <v>0.03720381715146375</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>159.875357279328</v>
+        <v>164.956207</v>
       </c>
       <c r="H33">
-        <v>159.875357279328</v>
+        <v>329.912414</v>
       </c>
       <c r="I33">
-        <v>0.1565486175468994</v>
+        <v>0.1561540225572818</v>
       </c>
       <c r="J33">
-        <v>0.1565486175468994</v>
+        <v>0.1161901458183021</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N33">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P33">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q33">
-        <v>640.5395363911128</v>
+        <v>695.9519968658747</v>
       </c>
       <c r="R33">
-        <v>640.5395363911128</v>
+        <v>4175.711981195249</v>
       </c>
       <c r="S33">
-        <v>0.00375740174786755</v>
+        <v>0.003817099532479622</v>
       </c>
       <c r="T33">
-        <v>0.00375740174786755</v>
+        <v>0.00351025945233639</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>159.875357279328</v>
+        <v>164.956207</v>
       </c>
       <c r="H34">
-        <v>159.875357279328</v>
+        <v>329.912414</v>
       </c>
       <c r="I34">
-        <v>0.1565486175468994</v>
+        <v>0.1561540225572818</v>
       </c>
       <c r="J34">
-        <v>0.1565486175468994</v>
+        <v>0.1161901458183021</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N34">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O34">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P34">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q34">
-        <v>1990.477624198001</v>
+        <v>2070.181702813207</v>
       </c>
       <c r="R34">
-        <v>1990.477624198001</v>
+        <v>12421.09021687924</v>
       </c>
       <c r="S34">
-        <v>0.0116761318846775</v>
+        <v>0.01135436013624811</v>
       </c>
       <c r="T34">
-        <v>0.0116761318846775</v>
+        <v>0.01044163235838001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>159.875357279328</v>
+        <v>164.956207</v>
       </c>
       <c r="H35">
-        <v>159.875357279328</v>
+        <v>329.912414</v>
       </c>
       <c r="I35">
-        <v>0.1565486175468994</v>
+        <v>0.1561540225572818</v>
       </c>
       <c r="J35">
-        <v>0.1565486175468994</v>
+        <v>0.1161901458183021</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N35">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O35">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P35">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q35">
-        <v>1943.12133400008</v>
+        <v>2010.237057072625</v>
       </c>
       <c r="R35">
-        <v>1943.12133400008</v>
+        <v>12061.42234243575</v>
       </c>
       <c r="S35">
-        <v>0.01139834012093297</v>
+        <v>0.0110255807372932</v>
       </c>
       <c r="T35">
-        <v>0.01139834012093297</v>
+        <v>0.01013928210969126</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>159.875357279328</v>
+        <v>164.956207</v>
       </c>
       <c r="H36">
-        <v>159.875357279328</v>
+        <v>329.912414</v>
       </c>
       <c r="I36">
-        <v>0.1565486175468994</v>
+        <v>0.1561540225572818</v>
       </c>
       <c r="J36">
-        <v>0.1565486175468994</v>
+        <v>0.1161901458183021</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N36">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O36">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P36">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q36">
-        <v>6808.662435707658</v>
+        <v>7390.485324862581</v>
       </c>
       <c r="R36">
-        <v>6808.662435707658</v>
+        <v>44342.91194917548</v>
       </c>
       <c r="S36">
-        <v>0.0399395801244456</v>
+        <v>0.04053471820667424</v>
       </c>
       <c r="T36">
-        <v>0.0399395801244456</v>
+        <v>0.03727630797207403</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>159.875357279328</v>
+        <v>164.956207</v>
       </c>
       <c r="H37">
-        <v>159.875357279328</v>
+        <v>329.912414</v>
       </c>
       <c r="I37">
-        <v>0.1565486175468994</v>
+        <v>0.1561540225572818</v>
       </c>
       <c r="J37">
-        <v>0.1565486175468994</v>
+        <v>0.1161901458183021</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N37">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O37">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P37">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q37">
-        <v>4584.886077200988</v>
+        <v>5239.728755773038</v>
       </c>
       <c r="R37">
-        <v>4584.886077200988</v>
+        <v>20958.91502309215</v>
       </c>
       <c r="S37">
-        <v>0.02689491901984586</v>
+        <v>0.02873842775658541</v>
       </c>
       <c r="T37">
-        <v>0.02689491901984586</v>
+        <v>0.01761884677435667</v>
       </c>
     </row>
   </sheetData>
